--- a/Input/invoice_problem_18_7_2025.xlsx
+++ b/Input/invoice_problem_18_7_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio Final/Desafio-Final-Robot/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\UiPath\Desafio_Final_TCS\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{FCF7D9F1-04BB-4BAE-9876-A485A5C8766D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B63CB0D7-BFFB-4C7B-ADBD-7011EACAE86B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B22E10-1EFB-43DE-87FF-4454F21FC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB5463B3-6BD9-4C44-8CC1-2957FA7610B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A95F661-DFA9-4B48-A26B-A620E3F551B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -87,12 +85,12 @@
     <t>New York</t>
   </si>
   <si>
+    <t>à vista</t>
+  </si>
+  <si>
     <t>jun. 12, 2025</t>
   </si>
   <si>
-    <t>à vista</t>
-  </si>
-  <si>
     <t>set. 25, 2025</t>
   </si>
   <si>
@@ -126,12 +124,12 @@
     <t>Miami</t>
   </si>
   <si>
+    <t>À prazo</t>
+  </si>
+  <si>
     <t>mai. 18, 2025</t>
   </si>
   <si>
-    <t>À prazo</t>
-  </si>
-  <si>
     <t>abr. 29, 2025</t>
   </si>
   <si>
@@ -204,121 +202,121 @@
     <t>Japão</t>
   </si>
   <si>
+    <t>À Vista</t>
+  </si>
+  <si>
     <t>jun. 22, 2025</t>
   </si>
   <si>
-    <t>À Vista</t>
+    <t>Barco</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Helicoptero</t>
+  </si>
+  <si>
+    <t>Foguete</t>
+  </si>
+  <si>
+    <t>Bicicleta</t>
+  </si>
+  <si>
+    <t>Genivaldo Paiva</t>
+  </si>
+  <si>
+    <t>Felipe Jaques</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>jun. 28, 2025</t>
+  </si>
+  <si>
+    <t>Paulo Rodrigues</t>
+  </si>
+  <si>
+    <t>Giogio Buccellari</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>mai. 30, 2025</t>
+  </si>
+  <si>
+    <t>out. 29, 2025</t>
+  </si>
+  <si>
+    <t>Chave</t>
+  </si>
+  <si>
+    <t>Fechadura</t>
+  </si>
+  <si>
+    <t>Porta</t>
+  </si>
+  <si>
+    <t>Janela</t>
+  </si>
+  <si>
+    <t>Telhado</t>
+  </si>
+  <si>
+    <t>Pedro de Moura</t>
+  </si>
+  <si>
+    <t>Ronaldo Silva</t>
+  </si>
+  <si>
+    <t>Roma - SEDE</t>
+  </si>
+  <si>
+    <t>jul. 15, 2025</t>
+  </si>
+  <si>
+    <t>Ryan Bennett</t>
+  </si>
+  <si>
+    <t>Henry Thomson</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Item not specified | Date on purchase predates the actual date |</t>
+  </si>
+  <si>
+    <t>Frederick Moore</t>
+  </si>
+  <si>
+    <t>Camilo Rowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Term not specified | Date on purchase predates the actual date |</t>
+  </si>
+  <si>
+    <t>Jedidiah Dixon</t>
+  </si>
+  <si>
+    <t>dez. 30, 2024</t>
+  </si>
+  <si>
+    <t>Import nt informed | Date on purchase predates the actual date | Due Date predates actual date |</t>
+  </si>
+  <si>
+    <t>Jay Campbell</t>
+  </si>
+  <si>
+    <t>Import nt informed | Date on purchase predates the actual date |</t>
+  </si>
+  <si>
+    <t>Turner Harper</t>
   </si>
   <si>
     <t>dez. 31, 2025</t>
-  </si>
-  <si>
-    <t>Barco</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
-    <t>Helicoptero</t>
-  </si>
-  <si>
-    <t>Foguete</t>
-  </si>
-  <si>
-    <t>Bicicleta</t>
-  </si>
-  <si>
-    <t>Genivaldo Paiva</t>
-  </si>
-  <si>
-    <t>Felipe Jaques</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>jun. 28, 2025</t>
-  </si>
-  <si>
-    <t>Paulo Rodrigues</t>
-  </si>
-  <si>
-    <t>Giogio Buccellari</t>
-  </si>
-  <si>
-    <t>Italia</t>
-  </si>
-  <si>
-    <t>mai. 30, 2025</t>
-  </si>
-  <si>
-    <t>out. 29, 2025</t>
-  </si>
-  <si>
-    <t>Chave</t>
-  </si>
-  <si>
-    <t>Fechadura</t>
-  </si>
-  <si>
-    <t>Porta</t>
-  </si>
-  <si>
-    <t>Janela</t>
-  </si>
-  <si>
-    <t>Telhado</t>
-  </si>
-  <si>
-    <t>Pedro de Moura</t>
-  </si>
-  <si>
-    <t>Ronaldo Silva</t>
-  </si>
-  <si>
-    <t>Roma - SEDE</t>
-  </si>
-  <si>
-    <t>jul. 15, 2025</t>
-  </si>
-  <si>
-    <t>Ryan Bennett</t>
-  </si>
-  <si>
-    <t>Henry Thomson</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Item not specified | Date on purchase predates the actual date |</t>
-  </si>
-  <si>
-    <t>Frederick Moore</t>
-  </si>
-  <si>
-    <t>Camilo Rowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Term not specified | Date on purchase predates the actual date |</t>
-  </si>
-  <si>
-    <t>Jedidiah Dixon</t>
-  </si>
-  <si>
-    <t>dez. 30, 2024</t>
-  </si>
-  <si>
-    <t>Import nt informed | Date on purchase predates the actual date | Due Date predates actual date |</t>
-  </si>
-  <si>
-    <t>Jay Campbell</t>
-  </si>
-  <si>
-    <t>Import nt informed | Date on purchase predates the actual date |</t>
-  </si>
-  <si>
-    <t>Turner Harper</t>
   </si>
 </sst>
 </file>
@@ -329,7 +327,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -384,39 +382,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -468,7 +466,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -579,6 +577,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -587,13 +592,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -658,45 +656,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEB0C08-A5A3-42CC-9077-55AB5117069E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C88B54-706A-4B97-8D35-001A7BC32E63}">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>876</v>
       </c>
@@ -751,10 +729,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -778,7 +756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>876</v>
       </c>
@@ -792,10 +770,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -819,7 +797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>876</v>
       </c>
@@ -833,10 +811,10 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -860,7 +838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>876</v>
       </c>
@@ -874,10 +852,10 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -901,7 +879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>876</v>
       </c>
@@ -915,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -942,7 +920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1456</v>
       </c>
@@ -956,10 +934,10 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -983,7 +961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1456</v>
       </c>
@@ -997,10 +975,10 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1024,7 +1002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1456</v>
       </c>
@@ -1038,10 +1016,10 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1065,7 +1043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1456</v>
       </c>
@@ -1079,10 +1057,10 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1106,7 +1084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1456</v>
       </c>
@@ -1120,10 +1098,10 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1147,7 +1125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1456</v>
       </c>
@@ -1161,10 +1139,10 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1188,7 +1166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1456</v>
       </c>
@@ -1202,10 +1180,10 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -1229,7 +1207,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1456</v>
       </c>
@@ -1243,10 +1221,10 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1270,7 +1248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1456</v>
       </c>
@@ -1284,10 +1262,10 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -1311,7 +1289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4768</v>
       </c>
@@ -1328,7 +1306,7 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
         <v>47</v>
@@ -1352,7 +1330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4768</v>
       </c>
@@ -1369,7 +1347,7 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
         <v>47</v>
@@ -1393,7 +1371,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4768</v>
       </c>
@@ -1410,7 +1388,7 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>47</v>
@@ -1434,7 +1412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4768</v>
       </c>
@@ -1451,7 +1429,7 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>47</v>
@@ -1475,7 +1453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1652</v>
       </c>
@@ -1489,19 +1467,19 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
-        <v>56</v>
-      </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H20">
         <v>15698</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1510,13 +1488,13 @@
         <v>250000</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1652</v>
       </c>
@@ -1530,19 +1508,19 @@
         <v>54</v>
       </c>
       <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
         <v>55</v>
       </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H21">
         <v>15698</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1551,13 +1529,13 @@
         <v>65000</v>
       </c>
       <c r="L21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1652</v>
       </c>
@@ -1571,19 +1549,19 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
         <v>55</v>
       </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H22">
         <v>15698</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1592,13 +1570,13 @@
         <v>550000</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1652</v>
       </c>
@@ -1612,19 +1590,19 @@
         <v>54</v>
       </c>
       <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
         <v>55</v>
       </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H23">
         <v>15698</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1633,30 +1611,30 @@
         <v>1000</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>123</v>
       </c>
       <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>65</v>
       </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>47</v>
@@ -1665,7 +1643,7 @@
         <v>1564165</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1674,30 +1652,30 @@
         <v>250000</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>123</v>
       </c>
       <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>64</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>65</v>
       </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -1706,7 +1684,7 @@
         <v>1564165</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1715,30 +1693,30 @@
         <v>65000</v>
       </c>
       <c r="L25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>123</v>
       </c>
       <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>64</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>65</v>
       </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
@@ -1747,7 +1725,7 @@
         <v>1564165</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1756,30 +1734,30 @@
         <v>550000</v>
       </c>
       <c r="L26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>123</v>
       </c>
       <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>64</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>65</v>
       </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
         <v>47</v>
@@ -1788,7 +1766,7 @@
         <v>1564165</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -1797,36 +1775,36 @@
         <v>1000</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>48</v>
       </c>
       <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>68</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>69</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
         <v>70</v>
       </c>
-      <c r="F28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>71</v>
-      </c>
-      <c r="I28" t="s">
-        <v>72</v>
       </c>
       <c r="J28">
         <v>9</v>
@@ -1835,36 +1813,36 @@
         <v>1500</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>48</v>
       </c>
       <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>69</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
         <v>70</v>
       </c>
-      <c r="F29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>71</v>
-      </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29">
         <v>4</v>
@@ -1873,36 +1851,36 @@
         <v>1569</v>
       </c>
       <c r="L29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>48</v>
       </c>
       <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>68</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>69</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
         <v>70</v>
       </c>
-      <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>71</v>
-      </c>
       <c r="I30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -1911,36 +1889,36 @@
         <v>216</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48</v>
       </c>
       <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>68</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
         <v>70</v>
       </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>71</v>
-      </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J31">
         <v>9</v>
@@ -1949,36 +1927,36 @@
         <v>849</v>
       </c>
       <c r="L31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>48</v>
       </c>
       <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>69</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
         <v>70</v>
       </c>
-      <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" t="s">
-        <v>71</v>
-      </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J32">
         <v>18</v>
@@ -1987,30 +1965,30 @@
         <v>615</v>
       </c>
       <c r="L32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>49815</v>
       </c>
       <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>79</v>
       </c>
-      <c r="E33" t="s">
-        <v>80</v>
-      </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
         <v>47</v>
@@ -2019,7 +1997,7 @@
         <v>1564165</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -2028,30 +2006,30 @@
         <v>250000</v>
       </c>
       <c r="L33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>49815</v>
       </c>
       <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
         <v>77</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>78</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>79</v>
       </c>
-      <c r="E34" t="s">
-        <v>80</v>
-      </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -2060,7 +2038,7 @@
         <v>1564165</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2069,30 +2047,30 @@
         <v>65000</v>
       </c>
       <c r="L34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>49815</v>
       </c>
       <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>78</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>79</v>
       </c>
-      <c r="E35" t="s">
-        <v>80</v>
-      </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
@@ -2101,7 +2079,7 @@
         <v>1564165</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2110,30 +2088,30 @@
         <v>550000</v>
       </c>
       <c r="L35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>49815</v>
       </c>
       <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>78</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>79</v>
       </c>
-      <c r="E36" t="s">
-        <v>80</v>
-      </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
         <v>47</v>
@@ -2142,7 +2120,7 @@
         <v>1564165</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -2151,18 +2129,18 @@
         <v>1000</v>
       </c>
       <c r="L36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>189165</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2171,10 +2149,10 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
         <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -2198,12 +2176,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>189165</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2212,10 +2190,10 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
         <v>16</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
       </c>
       <c r="G38" t="s">
         <v>18</v>
@@ -2239,12 +2217,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>189165</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2253,10 +2231,10 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
         <v>16</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
@@ -2280,12 +2258,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>189165</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2294,10 +2272,10 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" t="s">
         <v>16</v>
-      </c>
-      <c r="F40" t="s">
-        <v>17</v>
       </c>
       <c r="G40" t="s">
         <v>18</v>
@@ -2321,12 +2299,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>189165</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2335,10 +2313,10 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="s">
         <v>16</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
@@ -2362,12 +2340,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1565416</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -2376,13 +2354,13 @@
         <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H42">
         <v>1564896</v>
@@ -2397,18 +2375,18 @@
         <v>1500</v>
       </c>
       <c r="L42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1565416</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -2417,13 +2395,13 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H43">
         <v>1564896</v>
@@ -2438,18 +2416,18 @@
         <v>3000</v>
       </c>
       <c r="L43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1565416</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -2458,13 +2436,13 @@
         <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H44">
         <v>1564896</v>
@@ -2479,18 +2457,18 @@
         <v>5000</v>
       </c>
       <c r="L44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1565416</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -2499,13 +2477,13 @@
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H45">
         <v>1564896</v>
@@ -2520,18 +2498,18 @@
         <v>300</v>
       </c>
       <c r="L45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1565416</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -2540,13 +2518,13 @@
         <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H46">
         <v>1564896</v>
@@ -2561,18 +2539,18 @@
         <v>9000</v>
       </c>
       <c r="L46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1565416</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -2581,13 +2559,13 @@
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H47">
         <v>1564896</v>
@@ -2602,18 +2580,18 @@
         <v>5900</v>
       </c>
       <c r="L47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1565416</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -2622,13 +2600,13 @@
         <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H48">
         <v>1564896</v>
@@ -2643,18 +2621,18 @@
         <v>465</v>
       </c>
       <c r="L48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1565416</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -2663,13 +2641,13 @@
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H49">
         <v>1564896</v>
@@ -2684,18 +2662,18 @@
         <v>13400</v>
       </c>
       <c r="L49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1565416</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -2704,13 +2682,13 @@
         <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H50">
         <v>1564896</v>
@@ -2725,18 +2703,18 @@
         <v>1560</v>
       </c>
       <c r="L50" t="s">
+        <v>82</v>
+      </c>
+      <c r="M50" t="s">
         <v>83</v>
       </c>
-      <c r="M50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12615</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
@@ -2748,7 +2726,7 @@
         <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>47</v>
@@ -2772,12 +2750,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12615</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
@@ -2789,7 +2767,7 @@
         <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>47</v>
@@ -2813,12 +2791,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12615</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>44</v>
@@ -2830,7 +2808,7 @@
         <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
         <v>47</v>
@@ -2854,12 +2832,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12615</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>44</v>
@@ -2871,7 +2849,7 @@
         <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
         <v>47</v>
@@ -2895,12 +2873,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14691</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
         <v>53</v>
@@ -2909,19 +2887,19 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H55">
         <v>15698</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -2930,18 +2908,18 @@
         <v>250000</v>
       </c>
       <c r="L55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14691</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
         <v>53</v>
@@ -2950,19 +2928,19 @@
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H56">
         <v>15698</v>
       </c>
       <c r="I56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2971,18 +2949,18 @@
         <v>65000</v>
       </c>
       <c r="L56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14691</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
         <v>53</v>
@@ -2991,19 +2969,19 @@
         <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H57">
         <v>15698</v>
       </c>
       <c r="I57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -3012,18 +2990,18 @@
         <v>550000</v>
       </c>
       <c r="L57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14691</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>53</v>
@@ -3032,19 +3010,19 @@
         <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H58">
         <v>15698</v>
       </c>
       <c r="I58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J58">
         <v>3</v>
@@ -3053,39 +3031,39 @@
         <v>1000</v>
       </c>
       <c r="L58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
       <c r="B59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
         <v>88</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>89</v>
       </c>
       <c r="H59">
         <v>1564165</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -3094,39 +3072,39 @@
         <v>250000</v>
       </c>
       <c r="L59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12</v>
       </c>
       <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
         <v>88</v>
-      </c>
-      <c r="C60" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>89</v>
       </c>
       <c r="H60">
         <v>1564165</v>
       </c>
       <c r="I60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3135,39 +3113,39 @@
         <v>65000</v>
       </c>
       <c r="L60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
       <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
         <v>88</v>
-      </c>
-      <c r="C61" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E61" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>89</v>
       </c>
       <c r="H61">
         <v>1564165</v>
       </c>
       <c r="I61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3176,39 +3154,39 @@
         <v>550000</v>
       </c>
       <c r="L61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
       <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
         <v>88</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D62" t="s">
-        <v>65</v>
-      </c>
-      <c r="E62" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" t="s">
-        <v>30</v>
-      </c>
-      <c r="G62" t="s">
-        <v>89</v>
       </c>
       <c r="H62">
         <v>1564165</v>
       </c>
       <c r="I62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -3217,36 +3195,36 @@
         <v>1000</v>
       </c>
       <c r="L62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4919</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
         <v>68</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>69</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
         <v>70</v>
       </c>
-      <c r="F63" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="I63" t="s">
         <v>71</v>
-      </c>
-      <c r="I63" t="s">
-        <v>72</v>
       </c>
       <c r="J63">
         <v>9</v>
@@ -3258,33 +3236,33 @@
         <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4919</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" t="s">
         <v>68</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>69</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
         <v>70</v>
       </c>
-      <c r="F64" t="s">
-        <v>30</v>
-      </c>
-      <c r="G64" t="s">
-        <v>71</v>
-      </c>
       <c r="I64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -3299,30 +3277,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4919</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
         <v>68</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>69</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
         <v>70</v>
       </c>
-      <c r="F65" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>71</v>
-      </c>
       <c r="I65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -3337,30 +3315,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4919</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" t="s">
         <v>68</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>69</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
         <v>70</v>
       </c>
-      <c r="F66" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" t="s">
-        <v>71</v>
-      </c>
       <c r="I66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J66">
         <v>9</v>
@@ -3375,30 +3353,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4919</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
         <v>68</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>69</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s">
         <v>70</v>
       </c>
-      <c r="F67" t="s">
-        <v>30</v>
-      </c>
-      <c r="G67" t="s">
-        <v>71</v>
-      </c>
       <c r="I67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J67">
         <v>18</v>
@@ -3413,24 +3391,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1495</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" t="s">
         <v>78</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>79</v>
       </c>
-      <c r="E68" t="s">
-        <v>80</v>
-      </c>
       <c r="F68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s">
         <v>47</v>
@@ -3439,7 +3417,7 @@
         <v>1564165</v>
       </c>
       <c r="I68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -3448,30 +3426,30 @@
         <v>250000</v>
       </c>
       <c r="L68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M68" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1495</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
         <v>78</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>79</v>
       </c>
-      <c r="E69" t="s">
-        <v>80</v>
-      </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s">
         <v>47</v>
@@ -3480,7 +3458,7 @@
         <v>1564165</v>
       </c>
       <c r="I69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3489,30 +3467,30 @@
         <v>65000</v>
       </c>
       <c r="L69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1495</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" t="s">
         <v>78</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>79</v>
       </c>
-      <c r="E70" t="s">
-        <v>80</v>
-      </c>
       <c r="F70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G70" t="s">
         <v>47</v>
@@ -3521,7 +3499,7 @@
         <v>1564165</v>
       </c>
       <c r="I70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3530,30 +3508,30 @@
         <v>550000</v>
       </c>
       <c r="L70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M70" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1495</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" t="s">
         <v>78</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>79</v>
       </c>
-      <c r="E71" t="s">
-        <v>80</v>
-      </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s">
         <v>47</v>
@@ -3562,7 +3540,7 @@
         <v>1564165</v>
       </c>
       <c r="I71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -3571,7 +3549,7 @@
         <v>1000</v>
       </c>
       <c r="L71" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M71" t="s">
         <v>21</v>
@@ -3583,12 +3561,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3CA2ED-BD93-487F-A730-C8EA8A19B21B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6151E86C-CB49-4E55-B88C-C35DBCF037C3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Input/invoice_problem_18_7_2025.xlsx
+++ b/Input/invoice_problem_18_7_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\UiPath\Desafio_Final_TCS\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B22E10-1EFB-43DE-87FF-4454F21FC1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698BD668-EE9F-4DE8-979C-A3EAD1516E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A95F661-DFA9-4B48-A26B-A620E3F551B0}"/>
   </bookViews>

--- a/Input/invoice_problem_18_7_2025.xlsx
+++ b/Input/invoice_problem_18_7_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\UiPath\Desafio_Final_TCS\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698BD668-EE9F-4DE8-979C-A3EAD1516E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{31A31343-83BC-4044-B20A-8FDC5DA1569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{948DEDB8-9968-4F1D-83E5-19C63E836BBB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A95F661-DFA9-4B48-A26B-A620E3F551B0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD9B3940-C5B0-4804-8DA9-F1D6E92B6D28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -85,12 +87,12 @@
     <t>New York</t>
   </si>
   <si>
+    <t>jun. 12, 2025</t>
+  </si>
+  <si>
     <t>à vista</t>
   </si>
   <si>
-    <t>jun. 12, 2025</t>
-  </si>
-  <si>
     <t>set. 25, 2025</t>
   </si>
   <si>
@@ -124,12 +126,12 @@
     <t>Miami</t>
   </si>
   <si>
+    <t>mai. 18, 2025</t>
+  </si>
+  <si>
     <t>À prazo</t>
   </si>
   <si>
-    <t>mai. 18, 2025</t>
-  </si>
-  <si>
     <t>abr. 29, 2025</t>
   </si>
   <si>
@@ -202,10 +204,13 @@
     <t>Japão</t>
   </si>
   <si>
+    <t>jun. 22, 2025</t>
+  </si>
+  <si>
     <t>À Vista</t>
   </si>
   <si>
-    <t>jun. 22, 2025</t>
+    <t>dez. 31, 2025</t>
   </si>
   <si>
     <t>Barco</t>
@@ -314,9 +319,6 @@
   </si>
   <si>
     <t>Turner Harper</t>
-  </si>
-  <si>
-    <t>dez. 31, 2025</t>
   </si>
 </sst>
 </file>
@@ -327,7 +329,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -371,6 +373,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -382,39 +388,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -466,7 +472,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -577,13 +583,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -592,6 +591,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -656,25 +662,45 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C88B54-706A-4B97-8D35-001A7BC32E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C459B-B173-4023-BD10-87D03ED2CAB5}">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>876</v>
       </c>
@@ -729,10 +755,10 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -756,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>876</v>
       </c>
@@ -770,10 +796,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -797,7 +823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>876</v>
       </c>
@@ -811,10 +837,10 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -838,7 +864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>876</v>
       </c>
@@ -852,10 +878,10 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -879,7 +905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>876</v>
       </c>
@@ -893,10 +919,10 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -920,7 +946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1456</v>
       </c>
@@ -934,10 +960,10 @@
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -961,7 +987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1456</v>
       </c>
@@ -975,10 +1001,10 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>31</v>
@@ -1002,7 +1028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1456</v>
       </c>
@@ -1016,10 +1042,10 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -1043,7 +1069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1456</v>
       </c>
@@ -1057,10 +1083,10 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>31</v>
@@ -1084,7 +1110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1456</v>
       </c>
@@ -1098,10 +1124,10 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1125,7 +1151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1456</v>
       </c>
@@ -1139,10 +1165,10 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1166,7 +1192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1456</v>
       </c>
@@ -1180,10 +1206,10 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -1207,7 +1233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1456</v>
       </c>
@@ -1221,10 +1247,10 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1248,7 +1274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1456</v>
       </c>
@@ -1262,10 +1288,10 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -1289,7 +1315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4768</v>
       </c>
@@ -1306,7 +1332,7 @@
         <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>47</v>
@@ -1330,7 +1356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4768</v>
       </c>
@@ -1347,7 +1373,7 @@
         <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>47</v>
@@ -1371,7 +1397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4768</v>
       </c>
@@ -1388,7 +1414,7 @@
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>47</v>
@@ -1412,7 +1438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4768</v>
       </c>
@@ -1429,7 +1455,7 @@
         <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>47</v>
@@ -1453,7 +1479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1652</v>
       </c>
@@ -1467,19 +1493,19 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
         <v>56</v>
       </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H20">
         <v>15698</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1488,13 +1514,13 @@
         <v>250000</v>
       </c>
       <c r="L20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1652</v>
       </c>
@@ -1508,19 +1534,19 @@
         <v>54</v>
       </c>
       <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
       <c r="G21" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H21">
         <v>15698</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1529,13 +1555,13 @@
         <v>65000</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1652</v>
       </c>
@@ -1549,19 +1575,19 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
         <v>56</v>
       </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
       <c r="G22" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H22">
         <v>15698</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1570,13 +1596,13 @@
         <v>550000</v>
       </c>
       <c r="L22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1652</v>
       </c>
@@ -1590,19 +1616,19 @@
         <v>54</v>
       </c>
       <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H23">
         <v>15698</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -1611,30 +1637,30 @@
         <v>1000</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>123</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>47</v>
@@ -1643,7 +1669,7 @@
         <v>1564165</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1652,30 +1678,30 @@
         <v>250000</v>
       </c>
       <c r="L24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>47</v>
@@ -1684,7 +1710,7 @@
         <v>1564165</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1693,30 +1719,30 @@
         <v>65000</v>
       </c>
       <c r="L25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>47</v>
@@ -1725,7 +1751,7 @@
         <v>1564165</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1734,30 +1760,30 @@
         <v>550000</v>
       </c>
       <c r="L26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>47</v>
@@ -1766,7 +1792,7 @@
         <v>1564165</v>
       </c>
       <c r="I27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -1775,36 +1801,36 @@
         <v>1000</v>
       </c>
       <c r="L27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J28">
         <v>9</v>
@@ -1813,36 +1839,36 @@
         <v>1500</v>
       </c>
       <c r="L28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29">
         <v>4</v>
@@ -1851,36 +1877,36 @@
         <v>1569</v>
       </c>
       <c r="L29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -1889,36 +1915,36 @@
         <v>216</v>
       </c>
       <c r="L30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31">
         <v>9</v>
@@ -1927,36 +1953,36 @@
         <v>849</v>
       </c>
       <c r="L31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J32">
         <v>18</v>
@@ -1965,30 +1991,30 @@
         <v>615</v>
       </c>
       <c r="L32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>49815</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
         <v>47</v>
@@ -1997,7 +2023,7 @@
         <v>1564165</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -2006,30 +2032,30 @@
         <v>250000</v>
       </c>
       <c r="L33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>49815</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
         <v>47</v>
@@ -2038,7 +2064,7 @@
         <v>1564165</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -2047,30 +2073,30 @@
         <v>65000</v>
       </c>
       <c r="L34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>49815</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
         <v>47</v>
@@ -2079,7 +2105,7 @@
         <v>1564165</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -2088,30 +2114,30 @@
         <v>550000</v>
       </c>
       <c r="L35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>49815</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
         <v>47</v>
@@ -2120,7 +2146,7 @@
         <v>1564165</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -2129,18 +2155,18 @@
         <v>1000</v>
       </c>
       <c r="L36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>189165</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -2149,10 +2175,10 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
         <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
       </c>
       <c r="G37" t="s">
         <v>18</v>
@@ -2176,12 +2202,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>189165</v>
       </c>
       <c r="B38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -2190,10 +2216,10 @@
         <v>15</v>
       </c>
       <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
         <v>17</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
       </c>
       <c r="G38" t="s">
         <v>18</v>
@@ -2217,12 +2243,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>189165</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -2231,10 +2257,10 @@
         <v>15</v>
       </c>
       <c r="E39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
         <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
       </c>
       <c r="G39" t="s">
         <v>18</v>
@@ -2258,12 +2284,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>189165</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -2272,10 +2298,10 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
         <v>17</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
       </c>
       <c r="G40" t="s">
         <v>18</v>
@@ -2299,12 +2325,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>189165</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -2313,10 +2339,10 @@
         <v>15</v>
       </c>
       <c r="E41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
         <v>17</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
       </c>
       <c r="G41" t="s">
         <v>18</v>
@@ -2340,12 +2366,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1565416</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -2354,13 +2380,13 @@
         <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H42">
         <v>1564896</v>
@@ -2375,18 +2401,18 @@
         <v>1500</v>
       </c>
       <c r="L42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1565416</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -2395,13 +2421,13 @@
         <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H43">
         <v>1564896</v>
@@ -2416,18 +2442,18 @@
         <v>3000</v>
       </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1565416</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -2436,13 +2462,13 @@
         <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H44">
         <v>1564896</v>
@@ -2457,18 +2483,18 @@
         <v>5000</v>
       </c>
       <c r="L44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1565416</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -2477,13 +2503,13 @@
         <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H45">
         <v>1564896</v>
@@ -2498,18 +2524,18 @@
         <v>300</v>
       </c>
       <c r="L45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1565416</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -2518,13 +2544,13 @@
         <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H46">
         <v>1564896</v>
@@ -2539,18 +2565,18 @@
         <v>9000</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1565416</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -2559,13 +2585,13 @@
         <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H47">
         <v>1564896</v>
@@ -2580,18 +2606,18 @@
         <v>5900</v>
       </c>
       <c r="L47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1565416</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
@@ -2600,13 +2626,13 @@
         <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H48">
         <v>1564896</v>
@@ -2621,18 +2647,18 @@
         <v>465</v>
       </c>
       <c r="L48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1565416</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -2641,13 +2667,13 @@
         <v>28</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H49">
         <v>1564896</v>
@@ -2662,18 +2688,18 @@
         <v>13400</v>
       </c>
       <c r="L49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1565416</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -2682,13 +2708,13 @@
         <v>28</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H50">
         <v>1564896</v>
@@ -2703,18 +2729,18 @@
         <v>1560</v>
       </c>
       <c r="L50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12615</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
@@ -2726,7 +2752,7 @@
         <v>46</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>47</v>
@@ -2750,12 +2776,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12615</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
@@ -2767,7 +2793,7 @@
         <v>46</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>47</v>
@@ -2791,12 +2817,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12615</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>44</v>
@@ -2808,7 +2834,7 @@
         <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>47</v>
@@ -2832,12 +2858,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>12615</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
         <v>44</v>
@@ -2849,7 +2875,7 @@
         <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
         <v>47</v>
@@ -2873,12 +2899,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14691</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
         <v>53</v>
@@ -2887,19 +2913,19 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H55">
         <v>15698</v>
       </c>
       <c r="I55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -2908,18 +2934,18 @@
         <v>250000</v>
       </c>
       <c r="L55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14691</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
         <v>53</v>
@@ -2928,19 +2954,19 @@
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H56">
         <v>15698</v>
       </c>
       <c r="I56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2949,18 +2975,18 @@
         <v>65000</v>
       </c>
       <c r="L56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14691</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
         <v>53</v>
@@ -2969,19 +2995,19 @@
         <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H57">
         <v>15698</v>
       </c>
       <c r="I57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2990,18 +3016,18 @@
         <v>550000</v>
       </c>
       <c r="L57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14691</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
         <v>53</v>
@@ -3010,19 +3036,19 @@
         <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="H58">
         <v>15698</v>
       </c>
       <c r="I58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J58">
         <v>3</v>
@@ -3031,39 +3057,39 @@
         <v>1000</v>
       </c>
       <c r="L58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H59">
         <v>1564165</v>
       </c>
       <c r="I59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J59">
         <v>2</v>
@@ -3072,39 +3098,39 @@
         <v>250000</v>
       </c>
       <c r="L59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H60">
         <v>1564165</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -3113,39 +3139,39 @@
         <v>65000</v>
       </c>
       <c r="L60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H61">
         <v>1564165</v>
       </c>
       <c r="I61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -3154,39 +3180,39 @@
         <v>550000</v>
       </c>
       <c r="L61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H62">
         <v>1564165</v>
       </c>
       <c r="I62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -3195,36 +3221,36 @@
         <v>1000</v>
       </c>
       <c r="L62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>4919</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J63">
         <v>9</v>
@@ -3236,33 +3262,33 @@
         <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>4919</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J64">
         <v>4</v>
@@ -3277,30 +3303,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4919</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J65">
         <v>5</v>
@@ -3315,30 +3341,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>4919</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J66">
         <v>9</v>
@@ -3353,30 +3379,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4919</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J67">
         <v>18</v>
@@ -3391,24 +3417,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1495</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G68" t="s">
         <v>47</v>
@@ -3417,7 +3443,7 @@
         <v>1564165</v>
       </c>
       <c r="I68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -3426,30 +3452,30 @@
         <v>250000</v>
       </c>
       <c r="L68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M68" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1495</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G69" t="s">
         <v>47</v>
@@ -3458,7 +3484,7 @@
         <v>1564165</v>
       </c>
       <c r="I69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -3467,30 +3493,30 @@
         <v>65000</v>
       </c>
       <c r="L69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M69" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1495</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G70" t="s">
         <v>47</v>
@@ -3499,7 +3525,7 @@
         <v>1564165</v>
       </c>
       <c r="I70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -3508,30 +3534,30 @@
         <v>550000</v>
       </c>
       <c r="L70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M70" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1495</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G71" t="s">
         <v>47</v>
@@ -3540,7 +3566,7 @@
         <v>1564165</v>
       </c>
       <c r="I71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -3549,7 +3575,7 @@
         <v>1000</v>
       </c>
       <c r="L71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M71" t="s">
         <v>21</v>
@@ -3561,12 +3587,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6151E86C-CB49-4E55-B88C-C35DBCF037C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76CEEF-4316-42AB-AD62-00AC0BAC6450}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Input/invoice_problem_18_7_2025.xlsx
+++ b/Input/invoice_problem_18_7_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{31A31343-83BC-4044-B20A-8FDC5DA1569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{948DEDB8-9968-4F1D-83E5-19C63E836BBB}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{31A31343-83BC-4044-B20A-8FDC5DA1569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B5A4514-06B9-44DC-894F-08F88AF42A53}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD9B3940-C5B0-4804-8DA9-F1D6E92B6D28}"/>
   </bookViews>

--- a/Input/invoice_problem_18_7_2025.xlsx
+++ b/Input/invoice_problem_18_7_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{31A31343-83BC-4044-B20A-8FDC5DA1569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B5A4514-06B9-44DC-894F-08F88AF42A53}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{CB8D668A-3EB0-421D-8F07-13186402FA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EB92899-CA47-4830-A83A-2297F35F7EB2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD9B3940-C5B0-4804-8DA9-F1D6E92B6D28}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{463B53B5-8B17-4C88-A688-C7E09FEDCC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -371,10 +371,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -693,7 +689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463C459B-B173-4023-BD10-87D03ED2CAB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6D6AAD-C43A-46CB-862E-700FDEC84CBE}">
   <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3587,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C76CEEF-4316-42AB-AD62-00AC0BAC6450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9BB9F5-F9F5-4CC4-AE68-BC45806EEC5D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Input/invoice_problem_18_7_2025.xlsx
+++ b/Input/invoice_problem_18_7_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{CB8D668A-3EB0-421D-8F07-13186402FA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EB92899-CA47-4830-A83A-2297F35F7EB2}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{CB8D668A-3EB0-421D-8F07-13186402FA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37038807-50B0-4711-A1E7-158253606798}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{463B53B5-8B17-4C88-A688-C7E09FEDCC74}"/>
   </bookViews>
@@ -371,6 +371,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Input/invoice_problem_18_7_2025.xlsx
+++ b/Input/invoice_problem_18_7_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cac9347e88df44a/Área de Trabalho/Projetos TCS/Desafio_Final_TCS/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puruo\Documents\UiPath\Desafio_Final_TCS\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{CB8D668A-3EB0-421D-8F07-13186402FA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37038807-50B0-4711-A1E7-158253606798}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B834D0C-6E99-4557-8FFB-5E3B4031FCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{463B53B5-8B17-4C88-A688-C7E09FEDCC74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{463B53B5-8B17-4C88-A688-C7E09FEDCC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -325,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,13 +333,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -354,8 +367,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,12 +389,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -698,50 +710,50 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>876</v>
       </c>
@@ -782,7 +794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>876</v>
       </c>
@@ -823,7 +835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>876</v>
       </c>
@@ -864,7 +876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>876</v>
       </c>
@@ -905,7 +917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>876</v>
       </c>
@@ -946,7 +958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1456</v>
       </c>
@@ -987,7 +999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1456</v>
       </c>
@@ -1028,7 +1040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1456</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1456</v>
       </c>
@@ -1110,7 +1122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1456</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1456</v>
       </c>
@@ -1192,7 +1204,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1456</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1456</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1456</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4768</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4768</v>
       </c>
@@ -1397,7 +1409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4768</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4768</v>
       </c>
@@ -1479,7 +1491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1652</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1652</v>
       </c>
@@ -1561,7 +1573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1652</v>
       </c>
@@ -1602,7 +1614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1652</v>
       </c>
@@ -1643,7 +1655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>123</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>123</v>
       </c>
@@ -1725,7 +1737,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>123</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>123</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>48</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>48</v>
       </c>
@@ -1883,7 +1895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>48</v>
       </c>
@@ -1921,7 +1933,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>48</v>
       </c>
@@ -1959,7 +1971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>48</v>
       </c>
@@ -1997,7 +2009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>49815</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>49815</v>
       </c>
@@ -2079,7 +2091,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>49815</v>
       </c>
@@ -2120,7 +2132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>49815</v>
       </c>
@@ -2161,7 +2173,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>189165</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>189165</v>
       </c>
@@ -2243,7 +2255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>189165</v>
       </c>
@@ -2284,7 +2296,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>189165</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>189165</v>
       </c>
@@ -2366,7 +2378,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1565416</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1565416</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1565416</v>
       </c>
@@ -2489,7 +2501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1565416</v>
       </c>
@@ -2530,7 +2542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1565416</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1565416</v>
       </c>
@@ -2612,7 +2624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1565416</v>
       </c>
@@ -2653,7 +2665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1565416</v>
       </c>
@@ -2694,7 +2706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1565416</v>
       </c>
@@ -2735,7 +2747,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12615</v>
       </c>
@@ -2776,7 +2788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12615</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12615</v>
       </c>
@@ -2858,7 +2870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12615</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14691</v>
       </c>
@@ -2940,7 +2952,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14691</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>14691</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>14691</v>
       </c>
@@ -3063,7 +3075,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
@@ -3104,7 +3116,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12</v>
       </c>
@@ -3145,7 +3157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
@@ -3186,7 +3198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
@@ -3227,7 +3239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4919</v>
       </c>
@@ -3265,7 +3277,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4919</v>
       </c>
@@ -3303,7 +3315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4919</v>
       </c>
@@ -3341,7 +3353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4919</v>
       </c>
@@ -3379,7 +3391,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4919</v>
       </c>
@@ -3417,7 +3429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1495</v>
       </c>
@@ -3458,7 +3470,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1495</v>
       </c>
@@ -3499,7 +3511,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1495</v>
       </c>
@@ -3540,7 +3552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1495</v>
       </c>
@@ -3592,7 +3604,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
